--- a/seating.xlsx
+++ b/seating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell V5415\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD49908-F21A-4C04-87BD-A82E01B5E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{808A7DBA-2AEA-4C29-8E74-1464854067EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65F62595-27E7-40EF-A4C1-04F186F7243D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>SeatNumber</t>
   </si>
@@ -39,17 +39,68 @@
     <t>Bench</t>
   </si>
   <si>
-    <t>Room A</t>
-  </si>
-  <si>
-    <t>Room B</t>
+    <t>CHECK THE BOARD</t>
+  </si>
+  <si>
+    <t>72258135B</t>
+  </si>
+  <si>
+    <t>72332447G</t>
+  </si>
+  <si>
+    <t>72332088J</t>
+  </si>
+  <si>
+    <t>72332037D</t>
+  </si>
+  <si>
+    <t>72332298J</t>
+  </si>
+  <si>
+    <t>72332433G</t>
+  </si>
+  <si>
+    <t>72332439f</t>
+  </si>
+  <si>
+    <t>72331919H</t>
+  </si>
+  <si>
+    <t>72331994E</t>
+  </si>
+  <si>
+    <t>72332189C</t>
+  </si>
+  <si>
+    <t>72331967H</t>
+  </si>
+  <si>
+    <t>72258272C</t>
+  </si>
+  <si>
+    <t>72332494J</t>
+  </si>
+  <si>
+    <t>72331915E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72332447G</t>
+  </si>
+  <si>
+    <t>72342809D</t>
+  </si>
+  <si>
+    <t>72332111G</t>
+  </si>
+  <si>
+    <t>72258183B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +116,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,17 +152,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -112,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,13 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A4E61A-99FE-4008-BA95-939830CF4284}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -431,59 +548,325 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>104</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>72426827</v>
+      </c>
+      <c r="B7" s="2">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>141</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>141</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>141</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>141</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+      <c r="B24" s="2">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
